--- a/data/UG/MS-BTech.xlsx
+++ b/data/UG/MS-BTech.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="guidelines" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="369">
   <si>
     <t xml:space="preserve">Please duplicate this document and give it your department's name before sharing it with us. (e.g. "Biomedical Engineering")</t>
   </si>
@@ -541,16 +541,16 @@
     <t xml:space="preserve">semester</t>
   </si>
   <si>
+    <t xml:space="preserve">Basket Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Course Credits</t>
   </si>
   <si>
-    <t xml:space="preserve">Basket Name</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">z</t>
@@ -1168,13 +1168,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1191,6 +1191,7 @@
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1241,7 +1242,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1251,15 +1252,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1267,15 +1268,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1307,15 +1308,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1327,7 +1328,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2979,20 +2980,22 @@
   </sheetPr>
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="60.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="60.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="60.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3008,195 +3011,197 @@
       <c r="D1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>174</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>173</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>177</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>179</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>181</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>183</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>185</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>187</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>189</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>191</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>193</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>195</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>197</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>199</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>200</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>201</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>203</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>205</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3417,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3649,11 +3654,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="59.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="255.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="2" width="14.43"/>
